--- a/translate.xlsx
+++ b/translate.xlsx
@@ -393,42 +393,57 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>template.username</v>
+        <v>zh-cn.username</v>
       </c>
       <c r="B2" t="str">
         <v>用户名</v>
       </c>
+      <c r="C2" t="str">
+        <v>username</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>template.password</v>
+        <v>zh-cn.password</v>
       </c>
       <c r="B3" t="str">
         <v>密码</v>
       </c>
+      <c r="C3" t="str">
+        <v>password</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>template.message.reuqired</v>
+        <v>zh-cn.message.reuqired</v>
       </c>
       <c r="B4" t="str">
         <v>信息不能为空</v>
       </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>template.operate.delete</v>
+        <v>zh-cn.operate.delete</v>
       </c>
       <c r="B5" t="str">
         <v>删除</v>
       </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>template.operate.add</v>
+        <v>zh-cn.operate.add</v>
       </c>
       <c r="B6" t="str">
         <v>新增</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -393,7 +393,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>zh-cn.username</v>
+        <v>template.username</v>
       </c>
       <c r="B2" t="str">
         <v>用户名</v>
@@ -404,7 +404,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>zh-cn.password</v>
+        <v>template.password</v>
       </c>
       <c r="B3" t="str">
         <v>密码</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>zh-cn.message.reuqired</v>
+        <v>template.message.reuqired</v>
       </c>
       <c r="B4" t="str">
         <v>信息不能为空</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>zh-cn.operate.delete</v>
+        <v>template.operate.delete</v>
       </c>
       <c r="B5" t="str">
         <v>删除</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>zh-cn.operate.add</v>
+        <v>template.operate.add</v>
       </c>
       <c r="B6" t="str">
         <v>新增</v>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="template.js" sheetId="1" r:id="rId1"/>
+    <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -393,7 +393,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>template.username</v>
+        <v>template.js.username</v>
       </c>
       <c r="B2" t="str">
         <v>用户名</v>
@@ -404,7 +404,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>template.password</v>
+        <v>template.js.password</v>
       </c>
       <c r="B3" t="str">
         <v>密码</v>
@@ -415,18 +415,15 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>template.message.reuqired</v>
+        <v>template.js.message.reuqired</v>
       </c>
       <c r="B4" t="str">
         <v>信息不能为空</v>
       </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>template.operate.delete</v>
+        <v>template.js.operate.delete</v>
       </c>
       <c r="B5" t="str">
         <v>删除</v>
@@ -437,7 +434,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>template.operate.add</v>
+        <v>template.js.operate.add</v>
       </c>
       <c r="B6" t="str">
         <v>新增</v>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -393,7 +393,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>template.js.username</v>
+        <v>template.username</v>
       </c>
       <c r="B2" t="str">
         <v>用户名</v>
@@ -404,7 +404,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>template.js.password</v>
+        <v>template.password</v>
       </c>
       <c r="B3" t="str">
         <v>密码</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>template.js.message.reuqired</v>
+        <v>template.message.reuqired</v>
       </c>
       <c r="B4" t="str">
         <v>信息不能为空</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>template.js.operate.delete</v>
+        <v>template.operate.delete</v>
       </c>
       <c r="B5" t="str">
         <v>删除</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>template.js.operate.add</v>
+        <v>template.operate.add</v>
       </c>
       <c r="B6" t="str">
         <v>新增</v>
